--- a/12 PowerBI/start/revit_data.xlsx
+++ b/12 PowerBI/start/revit_data.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\desktop\dynamo_course material\series_recording\Dynamo-Revit Applied to MEP workflows\12 PowerBI\start\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsin Sarwar\Desktop\myweb\DynamoRevitAppliedToMEP\12 PowerBI\start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C994F6D-026C-425B-9954-289A032CB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{87A6E5F6-8E99-414E-BB5F-FE7BA499805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -139,12 +150,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -199,39 +210,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -264,9 +275,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -299,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,13 +405,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -375,6 +413,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -439,18 +484,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5453988F-9CC2-43B4-BD60-ED588EE82C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -925,12 +990,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
